--- a/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,7 @@
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
   </si>
   <si>
     <t>sc</t>
@@ -67,60 +64,63 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -130,25 +130,22 @@
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>share</t>
@@ -523,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
@@ -584,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -655,16 +652,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5405405405405406</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>116</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3915343915343915</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3236434108527132</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C8">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,95 +849,71 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>349</v>
+        <v>127</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8198433420365535</v>
+      </c>
+      <c r="L8">
+        <v>314</v>
+      </c>
+      <c r="M8">
+        <v>314</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="K9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L9">
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1812080536912752</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.825065274151436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,21 +925,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1186,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L20">
         <v>33</v>
       </c>
-      <c r="K20">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
       <c r="M20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6825396825396826</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1342,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6147058823529412</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L27">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5531914893617021</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5491525423728814</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L30">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M30">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5481171548117155</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L31">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,47 +1497,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L33">
+        <v>43</v>
+      </c>
+      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>46</v>
-      </c>
-      <c r="K33">
-        <v>0.4606741573033708</v>
-      </c>
-      <c r="L33">
-        <v>41</v>
-      </c>
-      <c r="M33">
-        <v>41</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3076923076923077</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1576,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
